--- a/src/Pickles/MIL_pickles/Output/AN210_TestScript_Desktop_Admin_Validation_UR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN210_TestScript_Desktop_Admin_Validation_UR.xlsx
@@ -15,6 +15,7 @@
     <x:sheet name="OPENIMAGE" sheetId="8" r:id="rId8"/>
     <x:sheet name="SHELLINTEGRATION" sheetId="9" r:id="rId9"/>
     <x:sheet name="UPDATECLIENT" sheetId="10" r:id="rId10"/>
+    <x:sheet name="USERACCOUNTLICENSING" sheetId="11" r:id="rId11"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <x:si>
     <x:t>CustomerWorkflowEU</x:t>
   </x:si>
@@ -720,6 +721,50 @@
   </x:si>
   <x:si>
     <x:t>the update message is displayed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UserAccountLicensing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@UR, @UR041, @DesktopOnly, @Admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>As a dentist
+I want to license all installations of AssistDent using my MI email and password
+So that I don't have to mess about with licence keys</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LicenseByLogin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@UR041-01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user account licensing is enabled on the active store app</x:t>
+  </x:si>
+  <x:si>
+    <x:t>there is no existing licence installed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>there is a user account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>there is a valid licence associated with that account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>enter correct login details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NoLicenceForInvalidUser</x:t>
+  </x:si>
+  <x:si>
+    <x:t>@UR041-02</x:t>
+  </x:si>
+  <x:si>
+    <x:t>enter incorrect login details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>an error message is displayed</x:t>
   </x:si>
   <x:si>
     <x:t>user</x:t>
@@ -1171,7 +1216,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B9"/>
+  <x:dimension ref="A1:B10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1179,7 +1224,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -1220,6 +1265,11 @@
     <x:row r="9" spans="1:2">
       <x:c r="B9" s="6" t="s">
         <x:v>192</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:2">
+      <x:c r="B10" s="6" t="s">
+        <x:v>226</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1232,6 +1282,7 @@
     <x:hyperlink ref="B7" location="'OPENIMAGE'!A1" display="OpenImage"/>
     <x:hyperlink ref="B8" location="'SHELLINTEGRATION'!A1" display="ShellIntegration"/>
     <x:hyperlink ref="B9" location="'UPDATECLIENT'!A1" display="UpdateClient"/>
+    <x:hyperlink ref="B10" location="'USERACCOUNTLICENSING'!A1" display="UserAccountLicensing"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -3469,4 +3520,182 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheeta.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:D25"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="1" t="s">
+        <x:v>226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="B2" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="s">
+        <x:v>227</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="B3" s="0" t="s">
+        <x:v>228</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="B5" s="1" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:4">
+      <x:c r="B6" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:4"/>
+    <x:row r="8" spans="1:4">
+      <x:c r="C8" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:4">
+      <x:c r="C9" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:4">
+      <x:c r="C10" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:4">
+      <x:c r="C11" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:4">
+      <x:c r="C12" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:4">
+      <x:c r="C13" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>235</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="C14" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:4">
+      <x:c r="B16" s="1" t="s">
+        <x:v>236</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="B17" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
+        <x:v>237</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:4"/>
+    <x:row r="19" spans="1:4">
+      <x:c r="C19" s="3" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>231</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:4">
+      <x:c r="C20" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:4">
+      <x:c r="C21" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>233</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="C22" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>234</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="C23" s="3" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="C24" s="3" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>238</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="C25" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>239</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>